--- a/my dashboard.xlsx
+++ b/my dashboard.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarah\OneDrive\My Dashboard\Excel-Dashboard-main\Excel-Dashboard-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FED2DB6-BD38-4CDB-A2EB-AD55CD12E8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C4DAA5-88CC-4780-8D5A-7750F1AF648A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EFF2B056-A882-48E1-ABA3-33F8F06098F0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EFF2B056-A882-48E1-ABA3-33F8F06098F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Contact Us" sheetId="4" r:id="rId2"/>
+    <sheet name="Emails" sheetId="5" r:id="rId3"/>
+    <sheet name="Data" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3231,6 +3233,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3247,13 +3254,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>670560</xdr:colOff>
+      <xdr:colOff>716280</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
@@ -3284,7 +3291,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="91440" y="1303020"/>
+          <a:off x="137160" y="1303020"/>
           <a:ext cx="579120" cy="579120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3348,14 +3355,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>670560</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3384,7 +3391,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="205740" y="4671060"/>
+          <a:off x="205740" y="5494020"/>
           <a:ext cx="464820" cy="464820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3397,15 +3404,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3434,7 +3441,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83820" y="3444240"/>
+          <a:off x="99060" y="4419600"/>
           <a:ext cx="601980" cy="601980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3475,6 +3482,1276 @@
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
               <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="167640" y="2339340"/>
+          <a:ext cx="510540" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>754380</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Graphic 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD62E746-C5C6-757F-1BA8-961461945A5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="99060" y="3246120"/>
+          <a:ext cx="655320" cy="655320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle: Rounded Corners 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A76C535C-7230-FF4E-FC28-5AB7D1F04EE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1043940" y="114300"/>
+          <a:ext cx="9738360" cy="807720"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9120"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Variable Text" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Sales Dashboard Hole Of</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Variable Text" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> The World</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000" b="1" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:latin typeface="Segoe UI Variable Text" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle: Rounded Corners 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BE4CB3D-1823-4DC5-9F79-CD0BB5BF77C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4351020" y="1120140"/>
+          <a:ext cx="3169920" cy="1226820"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9120"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Variable Text" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Profit</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle: Rounded Corners 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582DE6E8-F595-0CC8-BAB3-716636B59697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1051560" y="1112520"/>
+          <a:ext cx="3169920" cy="1226820"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9120"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Variable Text" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Sales</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle: Rounded Corners 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87AE3CCD-34D1-D783-CF9C-6E9133701356}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7627620" y="1127760"/>
+          <a:ext cx="3169920" cy="1226820"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9120"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Variable Text" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Variable Text" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> of Customer</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:latin typeface="Segoe UI Variable Text" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle: Rounded Corners 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36BFD0E7-6FED-4964-82FB-FF08B24AE42F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1112520" y="2598420"/>
+          <a:ext cx="6438900" cy="3337560"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4326"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Variable Text" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2024-2023 Trend (in million)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle: Rounded Corners 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF0DD6ED-681E-45E5-82CA-65AB2EAE7BFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7665720" y="2636520"/>
+          <a:ext cx="3169920" cy="3268980"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4312"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Variable Text" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Customer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Variable Text" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Safistication</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:latin typeface="Segoe UI Variable Text" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle: Rounded Corners 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C27C07-1134-4E4D-8F9F-FEBE4C1E3E94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10957560" y="129540"/>
+          <a:ext cx="3169920" cy="5745480"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4312"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Variable Text" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Sales</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Variable Text" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> By Country 2024</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:latin typeface="Segoe UI Variable Text" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1589731" cy="279948"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="TextBox 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F61550-8A53-ABF8-2B80-E04EBD811F83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1135380" y="541020"/>
+          <a:ext cx="1589731" cy="279948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Variable Text" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>figures in</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Variable Text" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> millions USD</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Segoe UI Variable Text" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Graphic 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84CE615F-C6A3-4F42-8141-559449104251}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="91440" y="1303020"/>
+          <a:ext cx="579120" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Graphic 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9993AF9D-9D2C-4A2C-B888-83724FBC3925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="182880"/>
+          <a:ext cx="883920" cy="883920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Graphic 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C52ABB-56E2-4A46-AFF6-6792AC47B6A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId7"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="205740" y="4671060"/>
+          <a:ext cx="464820" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Graphic 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9618746-B9FD-4AE6-BEB2-ED236163D74B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="83820" y="3444240"/>
+          <a:ext cx="601980" cy="601980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Graphic 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F162F93-4509-4E46-883B-39856EE40816}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="167640" y="2339340"/>
+          <a:ext cx="510540" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Graphic 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A66D77E8-B19B-4CE7-A3B4-003790D7859D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="91440" y="1303020"/>
+          <a:ext cx="579120" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Graphic 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0019D93-24CD-48EE-B12F-4154DB2834F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="182880"/>
+          <a:ext cx="883920" cy="883920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Graphic 8">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DCF448-9075-4403-B51B-86243F971453}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId7"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="205740" y="4671060"/>
+          <a:ext cx="464820" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Graphic 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F50FFD9-ED3A-43BF-AF9D-B0826A30DC04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3796,8 +5073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979F8964-E5CC-4A29-81B5-F79AB4B53DED}">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3965,11 +5242,349 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5B130F-5A66-4928-872F-DC51768501A2}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944180FC-CD32-4B95-9D67-0F9C62B178B6}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50179F86-A187-405A-A553-6E012F2EE14D}">
   <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView rightToLeft="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="P201" sqref="P201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
